--- a/Data/Test/dataset1/input_data.xlsx
+++ b/Data/Test/dataset1/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\experiment\AI_SH_graph_rev_rev1\Data\Test\dataset1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C368F954-E8DE-4E59-800B-52B50F437971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD27ED1-7602-41B0-89D6-A394668B6D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ship" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -547,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D39" sqref="D1:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -589,7 +589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -606,7 +606,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -623,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -640,7 +640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -657,7 +657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -674,7 +674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -691,7 +691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -708,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -725,7 +725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -759,7 +759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -827,7 +827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -862,7 +862,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -896,7 +896,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -913,7 +913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -930,7 +930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -947,7 +947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -964,7 +964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -981,7 +981,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -998,7 +998,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1200,23 +1200,6 @@
       </c>
       <c r="E38" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1233,9 +1216,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1249,7 +1232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1263,7 +1246,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1277,7 +1260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1305,7 +1288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1319,7 +1302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1333,7 +1316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1347,7 +1330,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1361,7 +1344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1375,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1389,7 +1372,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1403,7 +1386,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1417,7 +1400,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1431,7 +1414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1445,7 +1428,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1473,9 +1456,9 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1492,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1509,7 +1492,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1526,7 +1509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1543,7 +1526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1560,7 +1543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1577,7 +1560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1594,7 +1577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1611,7 +1594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1628,7 +1611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1645,7 +1628,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1662,7 +1645,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1679,7 +1662,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1696,7 +1679,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1713,7 +1696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1730,7 +1713,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1761,9 +1744,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1785,7 +1768,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1807,7 +1790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1818,7 +1801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1829,7 +1812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1850,13 +1833,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734BEDA7-155B-41FB-9104-9149E63F8ABB}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1864,7 +1847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1872,7 +1855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1880,7 +1863,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1888,7 +1871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>

--- a/Data/Test/dataset1/input_data.xlsx
+++ b/Data/Test/dataset1/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\experiment\AI_SH_graph_rev_rev1\Data\Test\dataset1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD27ED1-7602-41B0-89D6-A394668B6D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6FBF88-96F5-4024-BC38-2582DC338A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ship" sheetId="1" r:id="rId1"/>
@@ -549,13 +549,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -589,7 +589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -606,7 +606,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -623,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -640,7 +640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -657,7 +657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -674,7 +674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -691,7 +691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -708,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -719,13 +719,13 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -759,7 +759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -770,13 +770,13 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -787,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -827,7 +827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -855,14 +855,13 @@
         <v>-0.1</v>
       </c>
       <c r="D18">
-        <f>-0.1</f>
         <v>-0.1</v>
       </c>
       <c r="E18">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -879,7 +878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -896,7 +895,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -913,7 +912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -930,7 +929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -947,7 +946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -964,7 +963,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -981,7 +980,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -998,7 +997,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1015,7 +1014,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1049,7 +1048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1066,7 +1065,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1117,7 +1116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1216,9 +1215,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1400,7 +1399,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1414,7 +1413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1456,9 +1455,9 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1526,7 +1525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1560,7 +1559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1662,7 +1661,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1744,9 +1743,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1833,13 +1832,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734BEDA7-155B-41FB-9104-9149E63F8ABB}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1847,7 +1849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1855,7 +1857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>60</v>
       </c>
